--- a/AP Digital Squarenine/Validation/Square9 Validation/Data/Config.xlsx
+++ b/AP Digital Squarenine/Validation/Square9 Validation/Data/Config.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\v-sourav.raj\Desktop\Square9 Validation\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\1Files\UPProjects\AP Digital Squarenine\Validation\Square9 Validation\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B6CEE21-8468-408D-8888-E486743C20E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AF8120A-9971-4BAB-8AD0-41C41BB7821E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="11640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -397,7 +397,7 @@
   <dimension ref="A1:Y994"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
